--- a/target/classes/excel/export/export_output.xlsx
+++ b/target/classes/excel/export/export_output.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="19">
   <si>
     <t>Area</t>
   </si>
@@ -54,15 +54,6 @@
     <t/>
   </si>
   <si>
-    <t>Valore Campo A| XXXA</t>
-  </si>
-  <si>
-    <t>Valore Campo B| XXXB</t>
-  </si>
-  <si>
-    <t>Valore Campo C| XXXC</t>
-  </si>
-  <si>
     <t>VERDE</t>
   </si>
   <si>
@@ -78,28 +69,13 @@
     <t>GRIGIO</t>
   </si>
   <si>
-    <t>Valore Campo D| XXXD</t>
-  </si>
-  <si>
-    <t>Cella 1| XXX1</t>
-  </si>
-  <si>
     <t>ESEMPIO 1</t>
   </si>
   <si>
-    <t>Cella 2| XXX2</t>
-  </si>
-  <si>
     <t>TESTO 2</t>
   </si>
   <si>
-    <t>Cella 3| XXX3</t>
-  </si>
-  <si>
     <t>CELLA 3</t>
-  </si>
-  <si>
-    <t>Cella 4| XXX4</t>
   </si>
   <si>
     <t xml:space="preserve"> PROVA 4</t>
@@ -151,7 +127,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -174,341 +150,315 @@
     </row>
     <row r="2" ht="15.0" customHeight="true"/>
     <row r="3" ht="15.0" customHeight="true">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
+      <c r="A3" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1.0</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>9</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
       <c r="A5" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>9</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="true">
       <c r="A6" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>9</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>9</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" t="n" s="0">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>9</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9" t="n" s="0">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>9</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>9</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" t="n" s="0">
-        <v>15.0</v>
+        <v>50.0</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>9</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" t="n" s="0">
-        <v>50.0</v>
+        <v>101.0</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>1.0</v>
+        <v>60.0</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>9</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" t="n" s="0">
-        <v>101.0</v>
+        <v>200.0</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>60.0</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s" s="0">
         <v>9</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" t="n" s="0">
-        <v>200.0</v>
+        <v>900.0</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>60.0</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s" s="0">
         <v>9</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" ht="15.0" customHeight="true">
-      <c r="A15" t="n" s="0">
-        <v>900.0</v>
-      </c>
-      <c r="B15" t="n" s="0">
-        <v>60.0</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="H15" t="s" s="0">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/excel/export/export_output.xlsx
+++ b/target/classes/excel/export/export_output.xlsx
@@ -22,36 +22,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="19">
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>${u1_col1}</t>
-  </si>
-  <si>
-    <t>${u1_col2}</t>
-  </si>
-  <si>
-    <t>${u1_col3}</t>
-  </si>
-  <si>
-    <t>${u1_col4}</t>
-  </si>
-  <si>
-    <t>${u1_col5}</t>
-  </si>
-  <si>
-    <t>${u1_col6}</t>
-  </si>
-  <si>
-    <t>${u1_col7}</t>
-  </si>
-  <si>
-    <t>${u1_col8}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="14">
+  <si>
+    <t>Esportazione Matrice</t>
+  </si>
+  <si>
+    <t>${header}</t>
+  </si>
+  <si>
+    <t>${obj}</t>
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Cella 4| XXX4(XXX4||15)</t>
   </si>
   <si>
     <t>VERDE</t>
@@ -127,7 +112,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -150,315 +135,320 @@
     </row>
     <row r="2" ht="15.0" customHeight="true"/>
     <row r="3" ht="15.0" customHeight="true">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" ht="15.0" customHeight="true">
+      <c r="A4" s="0" t="n">
         <v>3.0</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" ht="15.0" customHeight="true">
-      <c r="A4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>18</v>
+      <c r="B4" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
       <c r="A5" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="true">
       <c r="A6" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" t="n" s="0">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9" t="n" s="0">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" t="n" s="0">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" t="n" s="0">
-        <v>50.0</v>
+        <v>15.0</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" t="n" s="0">
-        <v>101.0</v>
+        <v>50.0</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>60.0</v>
+        <v>1.0</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" t="n" s="0">
-        <v>200.0</v>
+        <v>101.0</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>60.0</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" t="n" s="0">
-        <v>900.0</v>
+        <v>200.0</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>60.0</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" t="n" s="0">
+        <v>900.0</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/excel/export/export_output.xlsx
+++ b/target/classes/excel/export/export_output.xlsx
@@ -23,10 +23,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="20">
   <si>
+    <t>${obj}</t>
+  </si>
+  <si>
     <t>${header}</t>
-  </si>
-  <si>
-    <t>${obj}</t>
   </si>
   <si>
     <t/>
@@ -146,34 +146,32 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="true">
-      <c r="A1" s="0"/>
-    </row>
-    <row r="2" ht="15.0" customHeight="true">
-      <c r="A2" s="0" t="s">
+      <c r="A1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H1" t="s" s="0">
         <v>10</v>
       </c>
     </row>
+    <row r="2" ht="15.0" customHeight="true"/>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="0" t="n">
         <v>3.0</v>

--- a/target/classes/excel/export/export_output.xlsx
+++ b/target/classes/excel/export/export_output.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="12">
   <si>
     <t>${obj}</t>
   </si>
@@ -30,30 +30,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Valore Campo A| XXXA(XXXA|NR|15)</t>
-  </si>
-  <si>
-    <t>Valore Campo B| XXXB(XXXB|NR|15)</t>
-  </si>
-  <si>
-    <t>Valore Campo C| XXXC(XXXC||15)</t>
-  </si>
-  <si>
-    <t>Valore Campo D| XXXD(XXXD||15)</t>
-  </si>
-  <si>
-    <t>Cella 1| XXX1(XXX1||15)</t>
-  </si>
-  <si>
-    <t>Cella 2| XXX2(XXX2||15)</t>
-  </si>
-  <si>
-    <t>Cella 3| XXX3(XXX3||15)</t>
-  </si>
-  <si>
-    <t>Cella 4| XXX4(XXX4||15)</t>
   </si>
   <si>
     <t>VERDE</t>
@@ -129,359 +105,335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.54296875" collapsed="false" bestFit="true"/>
-    <col min="2" max="2" customWidth="true" width="34.31640625" collapsed="false" bestFit="true"/>
-    <col min="3" max="3" customWidth="true" width="31.62890625" collapsed="false" bestFit="true"/>
-    <col min="4" max="4" customWidth="true" width="32.171875" collapsed="false" bestFit="true"/>
-    <col min="5" max="5" customWidth="true" width="23.16015625" collapsed="false" bestFit="true"/>
-    <col min="6" max="6" customWidth="true" width="23.16015625" collapsed="false" bestFit="true"/>
-    <col min="7" max="7" customWidth="true" width="23.16015625" collapsed="false" bestFit="true"/>
-    <col min="8" max="8" customWidth="true" width="23.16015625" collapsed="false" bestFit="true"/>
+    <col min="1" max="1" customWidth="true" width="4.37890625" collapsed="false" bestFit="true"/>
+    <col min="2" max="2" customWidth="true" width="3.265625" collapsed="false" bestFit="true"/>
+    <col min="3" max="3" customWidth="true" width="7.5703125" collapsed="false" bestFit="true"/>
+    <col min="4" max="4" customWidth="true" width="1.03515625" collapsed="false" bestFit="true"/>
+    <col min="5" max="5" customWidth="true" width="10.8359375" collapsed="false" bestFit="true"/>
+    <col min="6" max="6" customWidth="true" width="8.33203125" collapsed="false" bestFit="true"/>
+    <col min="7" max="7" customWidth="true" width="8.01953125" collapsed="false" bestFit="true"/>
+    <col min="8" max="8" customWidth="true" width="9.453125" collapsed="false" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="true">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="0"/>
+    </row>
+    <row r="2" ht="15.0" customHeight="true">
+      <c r="A2" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="15.0" customHeight="true">
+      <c r="A3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B1" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" ht="15.0" customHeight="true"/>
-    <row r="3" ht="15.0" customHeight="true">
-      <c r="A3" s="0" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>19</v>
+      <c r="D3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>2</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
       <c r="A5" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>2</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="true">
       <c r="A6" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>2</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" t="n" s="0">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>2</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" t="n" s="0">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>2</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>2</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" t="n" s="0">
-        <v>15.0</v>
+        <v>50.0</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>2</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" t="n" s="0">
-        <v>50.0</v>
+        <v>101.0</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>1.0</v>
+        <v>60.0</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>2</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" t="n" s="0">
-        <v>101.0</v>
+        <v>200.0</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>60.0</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>2</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" t="n" s="0">
-        <v>200.0</v>
+        <v>900.0</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>60.0</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s" s="0">
         <v>2</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" ht="15.0" customHeight="true">
-      <c r="A14" t="n" s="0">
-        <v>900.0</v>
-      </c>
-      <c r="B14" t="n" s="0">
-        <v>60.0</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
